--- a/src/assets/Candidate_Template-Instruction.xlsx
+++ b/src/assets/Candidate_Template-Instruction.xlsx
@@ -143,9 +143,6 @@
     <t>"Male"</t>
   </si>
   <si>
-    <t>Government-issued Aadhar card number</t>
-  </si>
-  <si>
     <t>"6789"</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
       </rPr>
       <t xml:space="preserve"> If a candidate's Aadhaar last 4 digits are 8907, DOB is 05-12-1995, Name is Manoj, and Gender is Male, then the system-generated ID will be: CAN890705121995M</t>
     </r>
+  </si>
+  <si>
+    <t>Government-issued Aadhar card last 4 Digit</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.69921875" defaultRowHeight="15.6"/>
@@ -1080,10 +1080,10 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
         <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1097,10 +1097,10 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1114,10 +1114,10 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1131,10 +1131,10 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1148,10 +1148,10 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1165,10 +1165,10 @@
         <v>38</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
         <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1182,48 +1182,48 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
         <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
